--- a/ATM90E3x_fw.xlsx
+++ b/ATM90E3x_fw.xlsx
@@ -11,13 +11,13 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty">'ATM90E3x_fw. '!$G$1</definedName>
-    <definedName name="digikey_part_data">'ATM90E3x_fw. '!$H$5:$L$38</definedName>
-    <definedName name="farnell_part_data">'ATM90E3x_fw. '!$M$5:$Q$38</definedName>
-    <definedName name="global_part_data">'ATM90E3x_fw. '!$A$5:$G$38</definedName>
-    <definedName name="mouser_part_data">'ATM90E3x_fw. '!$R$5:$V$38</definedName>
-    <definedName name="newark_part_data">'ATM90E3x_fw. '!$W$5:$AA$38</definedName>
-    <definedName name="rs_part_data">'ATM90E3x_fw. '!$AB$5:$AF$38</definedName>
-    <definedName name="tme_part_data">'ATM90E3x_fw. '!$AG$5:$AK$38</definedName>
+    <definedName name="digikey_part_data">'ATM90E3x_fw. '!$H$5:$L$37</definedName>
+    <definedName name="farnell_part_data">'ATM90E3x_fw. '!$M$5:$Q$37</definedName>
+    <definedName name="global_part_data">'ATM90E3x_fw. '!$A$5:$G$37</definedName>
+    <definedName name="mouser_part_data">'ATM90E3x_fw. '!$R$5:$V$37</definedName>
+    <definedName name="newark_part_data">'ATM90E3x_fw. '!$W$5:$AA$37</definedName>
+    <definedName name="rs_part_data">'ATM90E3x_fw. '!$AB$5:$AF$37</definedName>
+    <definedName name="tme_part_data">'ATM90E3x_fw. '!$AG$5:$AK$37</definedName>
     <definedName name="TotalCost">'ATM90E3x_fw. '!$G$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -663,14 +663,14 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.48      $0.48
-    10   $0.45      $4.53
-    25   $0.40     $10.00
-    50   $0.33     $16.25
-   100   $0.32     $31.60
-   250   $0.27     $68.25
-   500   $0.27    $136.00
-  1000   $0.25    $250.00</t>
+     1   $0.51      $0.51
+    10   $0.47      $4.75
+    25   $0.42     $10.55
+    50   $0.35     $17.35
+   100   $0.34     $33.80
+   250   $0.29     $73.75
+   500   $0.29    $147.00
+  1000   $0.27    $272.00</t>
         </r>
       </text>
     </comment>
@@ -695,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0">
+    <comment ref="O21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -711,13 +711,13 @@
     10   $0.67      $6.68
    100   $0.53     $53.35
    500   $0.47    $233.08
-  1000   $0.39    $385.14
-  2500   $0.36    $903.64
-  5000   $0.32   $1601.62</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y22" authorId="0">
+  1000   $0.41    $407.57
+  2500   $0.38    $956.61
+  5000   $0.33   $1670.18</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -729,18 +729,18 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.79      $0.79
-    10   $0.74      $7.45
-    25   $0.66     $16.57
-    50   $0.59     $29.60
-   100   $0.58     $57.70
-   250   $0.50    $125.75
-   500   $0.49    $246.00
-  1000   $0.46    $456.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD22" authorId="0">
+     1   $0.78      $0.78
+    10   $0.73      $7.28
+    25   $0.65     $16.20
+    50   $0.58     $28.90
+   100   $0.56     $56.40
+   250   $0.49    $122.75
+   500   $0.48    $240.00
+  1000   $0.45    $445.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -761,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0">
+    <comment ref="O22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,30 +773,17 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.59      $0.59
-    10   $0.51      $5.06
-    25   $0.45     $11.19
-    50   $0.44     $22.12
-   100   $0.44     $43.87
-   250   $0.37     $93.17
-   500   $0.36    $177.61</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T23" authorId="0">
+     1   $0.61      $0.61
+    10   $0.53      $5.30
+    25   $0.47     $11.81
+    50   $0.47     $23.37
+   100   $0.46     $46.37
+   250   $0.40     $99.71
+   500   $0.38    $190.08</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -809,18 +796,16 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.39      $0.39
-    10   $0.31      $3.12
-    25   $0.26      $6.50
-   100   $0.26     $25.50
-   250   $0.22     $56.00
-   500   $0.20    $102.00
-  1000   $0.18    $184.00
-  2500   $0.14    $345.00
-  5000   $0.13    $665.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y23" authorId="0">
+    10   $0.31      $3.13
+    25   $0.26      $6.53
+   100   $0.26     $25.60
+   250   $0.23     $56.25
+   500   $0.20    $102.50
+  1000   $0.18    $185.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -832,18 +817,18 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.47      $0.47
-    10   $0.41      $4.05
-    25   $0.36      $8.95
-    50   $0.35     $17.70
-   100   $0.35     $35.10
-   250   $0.30     $74.75
-   500   $0.28    $142.00
-  1000   $0.25    $254.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD23" authorId="0">
+     1   $0.49      $0.49
+    10   $0.43      $4.30
+    25   $0.38      $9.57
+    50   $0.38     $18.95
+   100   $0.38     $37.60
+   250   $0.32     $81.00
+   500   $0.31    $154.50
+  1000   $0.28    $279.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -864,7 +849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O24" authorId="0">
+    <comment ref="O23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -876,16 +861,16 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.55      $1.55
-    50   $1.45     $72.29
-   100   $1.36    $135.86
+     1   $1.61      $1.61
+    50   $1.51     $75.41
+   100   $1.40    $139.60
    250   $1.26    $314.72
-   500   $1.16    $582.07
-  1000   $1.01   $1007.09</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y24" authorId="0">
+   500   $1.16    $581.45
+  1000   $0.94    $943.52</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -897,31 +882,18 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.67      $1.67
-    10   $1.49     $14.90
-    25   $1.42     $35.50
-    50   $1.36     $68.00
-   100   $1.30    $130.00
-   250   $1.17    $292.50
-   500   $1.08    $540.00
-  1000   $0.92    $923.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T32" authorId="0">
+     1   $1.43      $1.43
+    10   $1.31     $13.10
+    25   $1.26     $31.50
+    50   $1.20     $60.00
+   100   $1.14    $114.00
+   250   $1.06    $265.00
+   500   $0.97    $486.50
+  1000   $0.85    $851.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -934,16 +906,27 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.04      $0.40
-   100   $0.01      $1.40
-  1000   $0.01     $10.00
-  2500   $0.01     $17.50
- 10000   $0.01     $60.00
- 20000   $0.01    $100.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O37" authorId="0">
+   100   $0.10     $10.30
+   500   $0.08     $40.57
+  1000   $0.07     $70.42
+  2500   $0.06    $155.49</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,15 +938,29 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $4.35      $4.35
-    10   $4.15     $41.51
-    25   $3.86     $96.60
-   150   $3.79    $568.36
-   250   $3.70    $925.45</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y37" authorId="0">
+     1   $0.10      $0.10
+    10   $0.02      $0.17
+   100   $0.01      $1.40
+   500   $0.01      $6.50
+  1000   $0.01     $12.00
+  5000   $0.01     $60.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -975,7 +972,50 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $2.95      $2.95
+     1   $0.10      $0.10
+    25   $0.05      $1.15
+    50   $0.04      $2.15
+   100   $0.04      $3.80
+   250   $0.03      $8.50
+   500   $0.03     $15.50
+  1000   $0.03     $28.00
+  2500   $0.03     $62.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $4.29      $4.29
+    10   $4.09     $40.88
+    25   $3.80     $95.04
+   150   $3.73    $559.01
+   250   $3.65    $912.99</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $2.97      $2.97
    500   $2.95   $1475.00
   1000   $2.80   $2800.00
   2000   $2.65   $5300.00
@@ -984,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O38" authorId="0">
+    <comment ref="O37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -996,13 +1036,13 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.14      $1.14
-  1000   $1.14   $1139.21
-  5000   $1.08   $5421.84</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y38" authorId="0">
+     1   $1.22      $1.22
+  1000   $1.22   $1218.98
+  5000   $1.12   $5577.64</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1014,7 +1054,7 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.94      $0.94
+     1   $0.96      $0.96
   1000   $0.94    $935.00
   2000   $0.91   $1820.00
   4000   $0.89   $3576.00
@@ -1023,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0">
+    <comment ref="I39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1036,7 +1076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N40" authorId="0">
+    <comment ref="N39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S40" authorId="0">
+    <comment ref="S39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1062,7 +1102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X40" authorId="0">
+    <comment ref="X39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC40" authorId="0">
+    <comment ref="AC39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1088,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH40" authorId="0">
+    <comment ref="AH39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -1249,7 +1289,40 @@
     <t>BM03B-SRSS-TB(LF)(SN)</t>
   </si>
   <si>
-    <t>J2,J6,J7,J9</t>
+    <t>J3,J8</t>
+  </si>
+  <si>
+    <t>CONN_01X06</t>
+  </si>
+  <si>
+    <t>Connectors_JST:JST_SH_BM06B-SRSS-TB_06x1.00mm_Straight</t>
+  </si>
+  <si>
+    <t>BM06B-SRSS-TB(LF)(SN)</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Connectors_Phoenix:PhoenixContact_MC-G_04x3.50mm_Angled</t>
+  </si>
+  <si>
+    <t>20020110-C041A01LF</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Conn_01x08</t>
+  </si>
+  <si>
+    <t>Connector_Molex:Molex_Nano-Fit_105314-xx08_2x04_P2.50mm_Horizontal</t>
+  </si>
+  <si>
+    <t>105314-1108</t>
+  </si>
+  <si>
+    <t>J9</t>
   </si>
   <si>
     <t>GS3</t>
@@ -1258,39 +1331,6 @@
     <t>Connectors:GS3</t>
   </si>
   <si>
-    <t>J3,J8</t>
-  </si>
-  <si>
-    <t>CONN_01X06</t>
-  </si>
-  <si>
-    <t>Connectors_JST:JST_SH_BM06B-SRSS-TB_06x1.00mm_Straight</t>
-  </si>
-  <si>
-    <t>BM06B-SRSS-TB(LF)(SN)</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>Connectors_Phoenix:PhoenixContact_MC-G_04x3.50mm_Angled</t>
-  </si>
-  <si>
-    <t>20020110-C041A01LF</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Conn_01x08</t>
-  </si>
-  <si>
-    <t>Connector_Molex:Molex_Nano-Fit_105314-xx08_2x04_P2.50mm_Horizontal</t>
-  </si>
-  <si>
-    <t>105314-1108</t>
-  </si>
-  <si>
     <t>JP1</t>
   </si>
   <si>
@@ -1327,66 +1367,60 @@
     <t>ATM90E26_from_eagle:ADAFRUIT_FEATHERWING</t>
   </si>
   <si>
-    <t>R1,R2,R4,R13-R16</t>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_0603</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>10KX4</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_Array_Concave_4x0603</t>
+  </si>
+  <si>
+    <t>YC164-JR-07510KL</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>1KX4</t>
+  </si>
+  <si>
+    <t>CAT16-102J4LF</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>Resistors_SMD:R_0603_HandSoldering</t>
+  </si>
+  <si>
+    <t>R9,R11,R21</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>R1-R4,R13-R16</t>
   </si>
   <si>
     <t>2.4R</t>
   </si>
   <si>
-    <t>Resistors_SMD:R_0603</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>10KX4</t>
-  </si>
-  <si>
-    <t>Resistors_SMD:R_Array_Concave_4x0603</t>
-  </si>
-  <si>
-    <t>YC164-JR-07510KL</t>
-  </si>
-  <si>
-    <t>R28</t>
-  </si>
-  <si>
-    <t>1KX4</t>
-  </si>
-  <si>
-    <t>YC122-JR-071KL</t>
-  </si>
-  <si>
-    <t>R29</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Resistors_SMD:R_0603_HandSoldering</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R9,R11,R21</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
     <t>R5-R8,R10,R12,R17-R20,R22-R24,R26</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -1423,7 +1457,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>21/09/2018 12:09:08 PM</t>
+    <t>7/01/2019 9:56:10 PM</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -1438,7 +1472,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2018-09-21 12:10:43</t>
+    <t>2019-01-07 21:57:57</t>
   </si>
   <si>
     <t>Digi-Key</t>
@@ -1468,6 +1502,9 @@
     <t>2820690</t>
   </si>
   <si>
+    <t>1770121</t>
+  </si>
+  <si>
     <t>2218605</t>
   </si>
   <si>
@@ -1480,12 +1517,12 @@
     <t>649-220110-C041A01LF</t>
   </si>
   <si>
+    <t>652-CAT16-102J4LF</t>
+  </si>
+  <si>
     <t>NonStk</t>
   </si>
   <si>
-    <t>603-YC122-JR-071KL</t>
-  </si>
-  <si>
     <t>Newark</t>
   </si>
   <si>
@@ -1499,6 +1536,9 @@
   </si>
   <si>
     <t>33AC7688</t>
+  </si>
+  <si>
+    <t>96M0885</t>
   </si>
   <si>
     <t>63X9547</t>
@@ -2077,7 +2117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK72"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
@@ -2129,13 +2169,13 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4">
         <v>100</v>
@@ -2143,11 +2183,11 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G2" s="5">
         <f>TotalCost/BoardQty</f>
@@ -2156,73 +2196,73 @@
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="G3" s="6">
-        <f>SUM(G7:G38)</f>
+        <f>SUM(G7:G37)</f>
         <v>0</v>
       </c>
       <c r="K3" s="6">
-        <f>SUM(K7:K38)</f>
+        <f>SUM(K7:K37)</f>
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <f>(ROWS(K7:K38)-COUNTBLANK(K7:K38))&amp;" of "&amp;ROWS(K7:K38)&amp;" parts found"</f>
+        <f>(ROWS(K7:K37)-COUNTBLANK(K7:K37))&amp;" of "&amp;ROWS(K7:K37)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <f>SUM(P7:P38)</f>
+        <f>SUM(P7:P37)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="7">
-        <f>(ROWS(P7:P38)-COUNTBLANK(P7:P38))&amp;" of "&amp;ROWS(P7:P38)&amp;" parts found"</f>
+        <f>(ROWS(P7:P37)-COUNTBLANK(P7:P37))&amp;" of "&amp;ROWS(P7:P37)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="U3" s="6">
-        <f>SUM(U7:U38)</f>
+        <f>SUM(U7:U37)</f>
         <v>0</v>
       </c>
       <c r="V3" s="7">
-        <f>(ROWS(U7:U38)-COUNTBLANK(U7:U38))&amp;" of "&amp;ROWS(U7:U38)&amp;" parts found"</f>
+        <f>(ROWS(U7:U37)-COUNTBLANK(U7:U37))&amp;" of "&amp;ROWS(U7:U37)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="Z3" s="6">
-        <f>SUM(Z7:Z38)</f>
+        <f>SUM(Z7:Z37)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="7">
-        <f>(ROWS(Z7:Z38)-COUNTBLANK(Z7:Z38))&amp;" of "&amp;ROWS(Z7:Z38)&amp;" parts found"</f>
+        <f>(ROWS(Z7:Z37)-COUNTBLANK(Z7:Z37))&amp;" of "&amp;ROWS(Z7:Z37)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AE3" s="6">
-        <f>SUM(AE7:AE38)</f>
+        <f>SUM(AE7:AE37)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="7">
-        <f>(ROWS(AE7:AE38)-COUNTBLANK(AE7:AE38))&amp;" of "&amp;ROWS(AE7:AE38)&amp;" parts found"</f>
+        <f>(ROWS(AE7:AE37)-COUNTBLANK(AE7:AE37))&amp;" of "&amp;ROWS(AE7:AE37)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="6">
-        <f>SUM(AJ7:AJ38)</f>
+        <f>SUM(AJ7:AJ37)</f>
         <v>0</v>
       </c>
       <c r="AK3" s="7">
-        <f>(ROWS(AJ7:AJ38)-COUNTBLANK(AJ7:AJ38))&amp;" of "&amp;ROWS(AJ7:AJ38)&amp;" parts found"</f>
+        <f>(ROWS(AJ7:AJ37)-COUNTBLANK(AJ7:AJ37))&amp;" of "&amp;ROWS(AJ7:AJ37)&amp;" parts found"</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -2236,28 +2276,28 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
@@ -2301,10 +2341,10 @@
         <v>7</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>6</v>
@@ -2313,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>6</v>
@@ -2328,13 +2368,13 @@
         <v>7</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T6" s="15" t="s">
         <v>6</v>
@@ -2343,13 +2383,13 @@
         <v>7</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y6" s="15" t="s">
         <v>6</v>
@@ -2358,13 +2398,13 @@
         <v>7</v>
       </c>
       <c r="AA6" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AB6" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC6" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>6</v>
@@ -2373,13 +2413,13 @@
         <v>7</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AG6" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AI6" s="15" t="s">
         <v>6</v>
@@ -2388,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -2716,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="16">
-        <v>53684</v>
+        <v>51454</v>
       </c>
       <c r="O20" s="17">
         <f>iferror(lookup(if(N20="",E20,N20),{0,1,10,100,500,1000,2500,5000},{0.0,0.5371984,0.5371984,0.411312,0.35771679999999995,0.2604976,0.2442944,0.21687359999999997}),"")</f>
@@ -2727,13 +2767,13 @@
         <v>0</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W20" s="16">
-        <v>2438</v>
+        <v>1308</v>
       </c>
       <c r="Y20" s="17">
-        <f>iferror(lookup(if(X20="",E20,X20),{0,1,10,25,50,100,250,500,1000},{0.0,0.485,0.453,0.4,0.325,0.316,0.273,0.272,0.25}),"")</f>
+        <f>iferror(lookup(if(X20="",E20,X20),{0,1,10,25,50,100,250,500,1000},{0.0,0.507,0.475,0.422,0.347,0.338,0.295,0.294,0.272}),"")</f>
         <v>0</v>
       </c>
       <c r="Z20" s="17">
@@ -2741,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB20" s="16">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AD20" s="17">
         <f>iferror(lookup(if(AC20="",E20,AC20),{0,1,10,50,250,500,1000},{0.0,0.6045039999999999,0.6045039999999999,0.4225296,0.36145599999999994,0.3315424,0.3153392}),"")</f>
@@ -2768,8 +2808,11 @@
       <c r="C21" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="D21" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="16">
-        <f>BoardQty*4</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="F21" s="17">
@@ -2780,13 +2823,55 @@
         <f>iferror(E21*F21,"")</f>
         <v>0</v>
       </c>
+      <c r="M21" s="16">
+        <v>57265</v>
+      </c>
+      <c r="O21" s="17">
+        <f>iferror(lookup(if(N21="",E21,N21),{0,1,10,100,500,1000,2500,5000},{0.0,0.6680704000000001,0.6680704000000001,0.5334592,0.4661536,0.4075728,0.38264479999999995,0.33403520000000003}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <f>iferror(if(N21="",E21,N21)*O21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="W21" s="16">
+        <v>449</v>
+      </c>
+      <c r="Y21" s="17">
+        <f>iferror(lookup(if(X21="",E21,X21),{0,1,10,25,50,100,250,500,1000},{0.0,0.776,0.728,0.648,0.578,0.564,0.491,0.48,0.445}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17">
+        <f>iferror(if(X21="",E21,X21)*Y21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>155</v>
+      </c>
+      <c r="AD21" s="17">
+        <f>iferror(lookup(if(AC21="",E21,AC21),{0,1,5,125,500,1250,2500},{0.0,0.6456352,0.6456352,0.6057503999999999,0.5907935999999999,0.5708512,0.5534015999999999}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="17">
+        <f>iferror(if(AC21="",E21,AC21)*AD21,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="18" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>52</v>
@@ -2795,7 +2880,7 @@
         <v>53</v>
       </c>
       <c r="E22" s="16">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="F22" s="17">
@@ -2807,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <v>70473</v>
+        <v>106</v>
       </c>
       <c r="O22" s="17">
-        <f>iferror(lookup(if(N22="",E22,N22),{0,1,10,100,500,1000,2500,5000},{0.0,0.6680704000000001,0.6680704000000001,0.5334592,0.4661536,0.38513759999999997,0.36145599999999994,0.3203248}),"")</f>
+        <f>iferror(lookup(if(N22="",E22,N22),{0,1,10,25,50,100,250,500},{0.0,0.6094896,0.52972,0.47238559999999996,0.4674,0.4636608,0.398848,0.380152}),"")</f>
         <v>0</v>
       </c>
       <c r="P22" s="17">
@@ -2818,13 +2903,27 @@
         <v>0</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="R22" s="16">
+        <v>2117</v>
+      </c>
+      <c r="T22" s="17">
+        <f>iferror(lookup(if(S22="",E22,S22),{0,1,10,25,100,250,500,1000},{0.0,0.392,0.313,0.261,0.256,0.225,0.205,0.185}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <f>iferror(if(S22="",E22,S22)*T22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="W22" s="16">
-        <v>70444</v>
+        <v>106</v>
       </c>
       <c r="Y22" s="17">
-        <f>iferror(lookup(if(X22="",E22,X22),{0,1,10,25,50,100,250,500,1000},{0.0,0.794,0.745,0.663,0.592,0.577,0.503,0.492,0.456}),"")</f>
+        <f>iferror(lookup(if(X22="",E22,X22),{0,1,10,25,50,100,250,500,1000},{0.0,0.494,0.43,0.383,0.379,0.376,0.324,0.309,0.279}),"")</f>
         <v>0</v>
       </c>
       <c r="Z22" s="17">
@@ -2835,10 +2934,10 @@
         <v>128</v>
       </c>
       <c r="AB22" s="16">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AD22" s="17">
-        <f>iferror(lookup(if(AC22="",E22,AC22),{0,1,5,125,500,1250,2500},{0.0,0.6456352,0.6456352,0.6057503999999999,0.5907935999999999,0.5708512,0.5534015999999999}),"")</f>
+        <f>iferror(lookup(if(AC22="",E22,AC22),{0,1,5,125,375,1000,2000},{0.0,0.6281856,0.6281856,0.5708512,0.49856,0.44371839999999996,0.4088192}),"")</f>
         <v>0</v>
       </c>
       <c r="AE22" s="17">
@@ -2846,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -2854,13 +2953,13 @@
         <v>54</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="16">
         <f>BoardQty*1</f>
@@ -2875,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="16">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="O23" s="17">
-        <f>iferror(lookup(if(N23="",E23,N23),{0,1,10,25,50,100,250,500},{0.0,0.585808,0.5060384,0.44745759999999996,0.442472,0.4387328,0.3726736,0.35522399999999993}),"")</f>
+        <f>iferror(lookup(if(N23="",E23,N23),{0,1,50,100,250,500,1000},{0.0,1.607856,1.508144,1.395968,1.258864,1.1628912,0.9435247999999999}),"")</f>
         <v>0</v>
       </c>
       <c r="P23" s="17">
@@ -2886,27 +2985,13 @@
         <v>0</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="R23" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="T23" s="17">
-        <f>iferror(lookup(if(S23="",E23,S23),{0,1,10,25,100,250,500,1000,2500,5000},{0.0,0.39,0.312,0.26,0.255,0.224,0.204,0.184,0.138,0.133}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="17">
-        <f>iferror(if(S23="",E23,S23)*T23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="W23" s="16">
-        <v>111</v>
+        <v>1369</v>
       </c>
       <c r="Y23" s="17">
-        <f>iferror(lookup(if(X23="",E23,X23),{0,1,10,25,50,100,250,500,1000},{0.0,0.469,0.405,0.358,0.354,0.351,0.299,0.284,0.254}),"")</f>
+        <f>iferror(lookup(if(X23="",E23,X23),{0,1,10,25,50,100,250,500,1000},{0.0,1.43,1.31,1.26,1.2,1.14,1.06,0.973,0.851}),"")</f>
         <v>0</v>
       </c>
       <c r="Z23" s="17">
@@ -2916,32 +3001,15 @@
       <c r="AA23" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="AB23" s="16">
-        <v>205</v>
-      </c>
-      <c r="AD23" s="17">
-        <f>iferror(lookup(if(AC23="",E23,AC23),{0,1,5,125,375,1000,2000},{0.0,0.6281856,0.6281856,0.5708512,0.49856,0.44371839999999996,0.4088192}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="17">
-        <f>iferror(if(AC23="",E23,AC23)*AD23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="18" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="16" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="16">
@@ -2955,34 +3023,6 @@
       <c r="G24" s="17">
         <f>iferror(E24*F24,"")</f>
         <v>0</v>
-      </c>
-      <c r="M24" s="16">
-        <v>65</v>
-      </c>
-      <c r="O24" s="17">
-        <f>iferror(lookup(if(N24="",E24,N24),{0,1,50,100,250,500,1000},{0.0,1.545536,1.4458239999999998,1.358576,1.258864,1.1641376,1.0070912}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="17">
-        <f>iferror(if(N24="",E24,N24)*O24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="W24" s="16">
-        <v>1534</v>
-      </c>
-      <c r="Y24" s="17">
-        <f>iferror(lookup(if(X24="",E24,X24),{0,1,10,25,50,100,250,500,1000},{0.0,1.67,1.49,1.42,1.36,1.3,1.17,1.08,0.923}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="17">
-        <f>iferror(if(X24="",E24,X24)*Y24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3088,7 +3128,7 @@
         <v>75</v>
       </c>
       <c r="E29" s="16">
-        <f>BoardQty*7</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="F29" s="17">
@@ -3108,7 +3148,10 @@
         <v>77</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="E30" s="16">
         <f>BoardQty*1</f>
@@ -3125,16 +3168,16 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>80</v>
-      </c>
       <c r="D31" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" s="16">
         <f>BoardQty*1</f>
@@ -3148,19 +3191,58 @@
         <f>iferror(E31*F31,"")</f>
         <v>0</v>
       </c>
+      <c r="M31" s="16">
+        <v>2116</v>
+      </c>
+      <c r="O31" s="17">
+        <f>iferror(lookup(if(N31="",E31,N31),{0,1,100,500,1000,2500},{0.0,0.10295264,0.10295264,0.08114064,0.0704216,0.06219536}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="17">
+        <f>iferror(if(N31="",E31,N31)*O31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="R31" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="T31" s="17">
+        <f>iferror(lookup(if(S31="",E31,S31),{0,1,10,100,500,1000,5000},{0.0,0.1,0.017,0.014,0.013,0.012,0.012}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="17">
+        <f>iferror(if(S31="",E31,S31)*T31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="W31" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y31" s="17">
+        <f>iferror(lookup(if(X31="",E31,X31),{0,1,25,50,100,250,500,1000,2500},{0.0,0.1,0.046,0.043,0.038,0.034,0.031,0.028,0.025}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="17">
+        <f>iferror(if(X31="",E31,X31)*Y31,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="18" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="16">
         <f>BoardQty*1</f>
@@ -3174,33 +3256,19 @@
         <f>iferror(E32*F32,"")</f>
         <v>0</v>
       </c>
-      <c r="R32" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="T32" s="17">
-        <f>iferror(lookup(if(S32="",E32,S32),{0,1,10,100,1000,2500,10000,20000},{0.0,0.1,0.04,0.014,0.01,0.007,0.006,0.005}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="17">
-        <f>iferror(if(S32="",E32,S32)*T32,"")</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="18" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E33" s="16">
-        <f>BoardQty*1</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="F33" s="17">
@@ -3217,13 +3285,13 @@
         <v>88</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>75</v>
       </c>
       <c r="E34" s="16">
-        <f>BoardQty*1</f>
+        <f>BoardQty*8</f>
         <v>0</v>
       </c>
       <c r="F34" s="17">
@@ -3237,16 +3305,16 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>75</v>
       </c>
       <c r="E35" s="16">
-        <f>BoardQty*3</f>
+        <f>BoardQty*14</f>
         <v>0</v>
       </c>
       <c r="F35" s="17">
@@ -3266,10 +3334,13 @@
         <v>92</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="E36" s="16">
-        <f>BoardQty*14</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="F36" s="17">
@@ -3280,19 +3351,47 @@
         <f>iferror(E36*F36,"")</f>
         <v>0</v>
       </c>
+      <c r="M36" s="16">
+        <v>832</v>
+      </c>
+      <c r="O36" s="17">
+        <f>iferror(lookup(if(N36="",E36,N36),{0,1,10,25,150,250},{0.0,4.287616,4.088191999999999,3.8015199999999996,3.7267360000000003,3.651952}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="17">
+        <f>iferror(if(N36="",E36,N36)*O36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="W36" s="16">
+        <v>500</v>
+      </c>
+      <c r="Y36" s="17">
+        <f>iferror(lookup(if(X36="",E36,X36),{0,1,500,1000,2000,3000,5000},{0.0,2.97,2.95,2.8,2.65,2.61,2.54}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="17">
+        <f>iferror(if(X36="",E36,X36)*Y36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="18" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E37" s="16">
         <f>BoardQty*1</f>
@@ -3307,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="M37" s="16">
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="O37" s="17">
-        <f>iferror(lookup(if(N37="",E37,N37),{0,1,10,25,150,250},{0.0,4.3499360000000005,4.150512,3.86384,3.789056,3.701808}),"")</f>
+        <f>iferror(lookup(if(N37="",E37,N37),{0,1,1000,5000},{0.0,1.2189792,1.2189792,1.115528}),"")</f>
         <v>0</v>
       </c>
       <c r="P37" s="17">
@@ -3321,10 +3420,10 @@
         <v>120</v>
       </c>
       <c r="W37" s="16">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="Y37" s="17">
-        <f>iferror(lookup(if(X37="",E37,X37),{0,1,500,1000,2000,3000,5000},{0.0,2.95,2.95,2.8,2.65,2.61,2.54}),"")</f>
+        <f>iferror(lookup(if(X37="",E37,X37),{0,1,1000,2000,4000,6000,10000},{0.0,0.959,0.935,0.91,0.894,0.878,0.845}),"")</f>
         <v>0</v>
       </c>
       <c r="Z37" s="17">
@@ -3332,2457 +3431,2329 @@
         <v>0</v>
       </c>
       <c r="AA37" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36">
-      <c r="A38" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="16">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="17">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="17">
-        <f>iferror(E38*F38,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="16">
-        <v>2000</v>
-      </c>
-      <c r="O38" s="17">
-        <f>iferror(lookup(if(N38="",E38,N38),{0,1,1000,5000},{0.0,1.1392096,1.1392096,1.084368}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="17">
-        <f>iferror(if(N38="",E38,N38)*O38,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="W38" s="16">
-        <v>2000</v>
-      </c>
-      <c r="Y38" s="17">
-        <f>iferror(lookup(if(X38="",E38,X38),{0,1,1000,2000,4000,6000,10000},{0.0,0.935,0.935,0.91,0.894,0.878,0.845}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="17">
-        <f>iferror(if(X38="",E38,X38)*Y38,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="18" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="39" spans="1:36">
+      <c r="A39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="7">
+        <f>IFERROR(IF(OR(I7:I37),COUNTIF(I7:I37,"&gt;0")&amp;" of "&amp;ROWS(I7:I37)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <f>IFERROR(IF(OR(N7:N37),COUNTIF(N7:N37,"&gt;0")&amp;" of "&amp;ROWS(N7:N37)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="7">
+        <f>IFERROR(IF(OR(S7:S37),COUNTIF(S7:S37,"&gt;0")&amp;" of "&amp;ROWS(S7:S37)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X39" s="7">
+        <f>IFERROR(IF(OR(X7:X37),COUNTIF(X7:X37,"&gt;0")&amp;" of "&amp;ROWS(X7:X37)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="7">
+        <f>IFERROR(IF(OR(AC7:AC37),COUNTIF(AC7:AC37,"&gt;0")&amp;" of "&amp;ROWS(AC7:AC37)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="7">
+        <f>IFERROR(IF(OR(AH7:AH37),COUNTIF(AH7:AH37,"&gt;0")&amp;" of "&amp;ROWS(AH7:AH37)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="40" spans="1:36">
-      <c r="A40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="7">
-        <f>IFERROR(IF(OR(I7:I38),COUNTIF(I7:I38,"&gt;0")&amp;" of "&amp;ROWS(I7:I38)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <f>IFERROR(IF(OR(N7:N38),COUNTIF(N7:N38,"&gt;0")&amp;" of "&amp;ROWS(N7:N38)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="7">
-        <f>IFERROR(IF(OR(S7:S38),COUNTIF(S7:S38,"&gt;0")&amp;" of "&amp;ROWS(S7:S38)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="7">
-        <f>IFERROR(IF(OR(X7:X38),COUNTIF(X7:X38,"&gt;0")&amp;" of "&amp;ROWS(X7:X38)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="7">
-        <f>IFERROR(IF(OR(AC7:AC38),COUNTIF(AC7:AC38,"&gt;0")&amp;" of "&amp;ROWS(AC7:AC38)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="7">
-        <f>IFERROR(IF(OR(AH7:AH38),COUNTIF(AH7:AH38,"&gt;0")&amp;" of "&amp;ROWS(AH7:AH38)&amp;" parts purchased",""),"")</f>
+      <c r="I40">
+        <f t="array" ref="I40">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="array" ref="J40">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="array" ref="K40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="array" ref="N40">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="array" ref="O40">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="array" ref="P40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="array" ref="S40">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="array" ref="T40">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f t="array" ref="U40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="array" ref="X40">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <f t="array" ref="Y40">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f t="array" ref="Z40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="array" ref="AC40">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="array" ref="AD40">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <f t="array" ref="AE40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f t="array" ref="AH40">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <f t="array" ref="AI40">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <f t="array" ref="AJ40">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:36">
       <c r="I41">
-        <f t="array" ref="I41">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I41">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="array" ref="J41">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J41">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="array" ref="K41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="array" ref="N41">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N41">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="array" ref="O41">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O41">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="array" ref="P41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S41">
-        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S41">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T41">
-        <f t="array" ref="T41">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T41">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U41">
-        <f t="array" ref="U41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="array" ref="X41">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X41">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="array" ref="Y41">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y41">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z41">
-        <f t="array" ref="Z41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC41">
-        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC41">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD41">
-        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD41">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE41">
-        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH41">
-        <f t="array" ref="AH41">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH41">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI41">
-        <f t="array" ref="AI41">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI41">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ41">
-        <f t="array" ref="AJ41">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ41">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:36">
       <c r="I42">
-        <f t="array" ref="I42">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I42">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="array" ref="J42">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J42">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="array" ref="K42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="array" ref="N42">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N42">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="array" ref="O42">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O42">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="array" ref="P42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S42">
-        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S42">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T42">
-        <f t="array" ref="T42">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T42">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U42">
-        <f t="array" ref="U42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="array" ref="X42">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X42">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="array" ref="Y42">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y42">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="array" ref="Z42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC42">
-        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC42">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD42">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE42">
-        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH42">
-        <f t="array" ref="AH42">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH42">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI42">
-        <f t="array" ref="AI42">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI42">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ42">
-        <f t="array" ref="AJ42">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ42">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:36">
       <c r="I43">
-        <f t="array" ref="I43">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I43">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="array" ref="J43">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J43">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="array" ref="K43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="array" ref="N43">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N43">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="array" ref="O43">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O43">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="array" ref="P43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S43">
-        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S43">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T43">
-        <f t="array" ref="T43">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T43">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U43">
-        <f t="array" ref="U43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="array" ref="X43">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X43">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="array" ref="Y43">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y43">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="array" ref="Z43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC43">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD43">
-        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD43">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH43">
-        <f t="array" ref="AH43">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH43">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI43">
-        <f t="array" ref="AI43">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI43">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ43">
-        <f t="array" ref="AJ43">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ43">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:36">
       <c r="I44">
-        <f t="array" ref="I44">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I44">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="array" ref="J44">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J44">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="array" ref="K44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="array" ref="N44">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N44">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="array" ref="O44">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O44">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="array" ref="P44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S44">
-        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S44">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T44">
-        <f t="array" ref="T44">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T44">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U44">
-        <f t="array" ref="U44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="array" ref="X44">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X44">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="array" ref="Y44">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y44">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f t="array" ref="Z44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC44">
-        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC44">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD44">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH44">
-        <f t="array" ref="AH44">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH44">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI44">
-        <f t="array" ref="AI44">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI44">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ44">
-        <f t="array" ref="AJ44">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ44">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:36">
       <c r="I45">
-        <f t="array" ref="I45">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I45">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J45">
-        <f t="array" ref="J45">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J45">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="array" ref="K45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="array" ref="N45">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N45">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="array" ref="O45">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O45">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="array" ref="P45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S45">
-        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S45">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T45">
-        <f t="array" ref="T45">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T45">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U45">
-        <f t="array" ref="U45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="array" ref="X45">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X45">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="array" ref="Y45">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y45">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f t="array" ref="Z45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC45">
-        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC45">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD45">
-        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD45">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE45">
-        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH45">
-        <f t="array" ref="AH45">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH45">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI45">
-        <f t="array" ref="AI45">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI45">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ45">
-        <f t="array" ref="AJ45">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ45">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:36">
       <c r="I46">
-        <f t="array" ref="I46">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I46">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="array" ref="J46">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J46">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="array" ref="K46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="array" ref="N46">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N46">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="array" ref="O46">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O46">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="array" ref="P46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S46">
-        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S46">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T46">
-        <f t="array" ref="T46">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T46">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U46">
-        <f t="array" ref="U46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X46">
-        <f t="array" ref="X46">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X46">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="array" ref="Y46">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y46">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f t="array" ref="Z46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC46">
-        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC46">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD46">
-        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD46">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE46">
-        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH46">
-        <f t="array" ref="AH46">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH46">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI46">
-        <f t="array" ref="AI46">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI46">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ46">
-        <f t="array" ref="AJ46">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ46">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:36">
       <c r="I47">
-        <f t="array" ref="I47">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I47">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="array" ref="J47">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J47">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="array" ref="K47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="array" ref="N47">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N47">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="array" ref="O47">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O47">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="array" ref="P47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S47">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="array" ref="T47">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T47">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="array" ref="U47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X47">
-        <f t="array" ref="X47">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X47">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="array" ref="Y47">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y47">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="array" ref="Z47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC47">
-        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC47">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD47">
-        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD47">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE47">
-        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH47">
-        <f t="array" ref="AH47">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH47">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI47">
-        <f t="array" ref="AI47">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI47">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ47">
-        <f t="array" ref="AJ47">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ47">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:36">
       <c r="I48">
-        <f t="array" ref="I48">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I48">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="array" ref="J48">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J48">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="array" ref="K48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="array" ref="N48">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N48">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="array" ref="O48">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O48">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="array" ref="P48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S48">
-        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S48">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T48">
-        <f t="array" ref="T48">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T48">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U48">
-        <f t="array" ref="U48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X48">
-        <f t="array" ref="X48">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X48">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="array" ref="Y48">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y48">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f t="array" ref="Z48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC48">
-        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC48">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD48">
-        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD48">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE48">
-        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH48">
-        <f t="array" ref="AH48">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH48">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI48">
-        <f t="array" ref="AI48">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI48">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ48">
-        <f t="array" ref="AJ48">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ48">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="9:36">
       <c r="I49">
-        <f t="array" ref="I49">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I49">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="array" ref="J49">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J49">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="array" ref="K49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="array" ref="N49">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N49">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="array" ref="O49">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O49">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="array" ref="P49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S49">
-        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S49">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T49">
-        <f t="array" ref="T49">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T49">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U49">
-        <f t="array" ref="U49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="array" ref="X49">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X49">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="array" ref="Y49">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y49">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z49">
-        <f t="array" ref="Z49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC49">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD49">
-        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD49">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE49">
-        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH49">
-        <f t="array" ref="AH49">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH49">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI49">
-        <f t="array" ref="AI49">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI49">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ49">
-        <f t="array" ref="AJ49">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ49">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="9:36">
       <c r="I50">
-        <f t="array" ref="I50">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I50">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="array" ref="J50">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J50">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="array" ref="K50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="array" ref="N50">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N50">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="array" ref="O50">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O50">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="array" ref="P50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S50">
-        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S50">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T50">
-        <f t="array" ref="T50">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T50">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U50">
-        <f t="array" ref="U50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="array" ref="X50">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X50">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="array" ref="Y50">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y50">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="array" ref="Z50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC50">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD50">
-        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD50">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH50">
-        <f t="array" ref="AH50">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH50">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI50">
-        <f t="array" ref="AI50">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI50">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ50">
-        <f t="array" ref="AJ50">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ50">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="9:36">
       <c r="I51">
-        <f t="array" ref="I51">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I51">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="array" ref="J51">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J51">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="array" ref="K51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="array" ref="N51">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N51">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="array" ref="O51">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O51">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="array" ref="P51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S51">
-        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S51">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T51">
-        <f t="array" ref="T51">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T51">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U51">
-        <f t="array" ref="U51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="array" ref="X51">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X51">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="array" ref="Y51">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y51">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f t="array" ref="Z51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC51">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD51">
-        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD51">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH51">
-        <f t="array" ref="AH51">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH51">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI51">
-        <f t="array" ref="AI51">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI51">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ51">
-        <f t="array" ref="AJ51">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ51">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="9:36">
       <c r="I52">
-        <f t="array" ref="I52">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I52">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="array" ref="J52">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J52">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="array" ref="K52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="array" ref="N52">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N52">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="array" ref="O52">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O52">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="array" ref="P52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S52">
-        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S52">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T52">
-        <f t="array" ref="T52">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T52">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U52">
-        <f t="array" ref="U52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X52">
-        <f t="array" ref="X52">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X52">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f t="array" ref="Y52">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y52">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f t="array" ref="Z52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC52">
-        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC52">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD52">
-        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD52">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE52">
-        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH52">
-        <f t="array" ref="AH52">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH52">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI52">
-        <f t="array" ref="AI52">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI52">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ52">
-        <f t="array" ref="AJ52">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ52">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="9:36">
       <c r="I53">
-        <f t="array" ref="I53">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I53">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="array" ref="J53">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J53">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="array" ref="K53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="array" ref="N53">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N53">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="array" ref="O53">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O53">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="array" ref="P53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S53">
-        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S53">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T53">
-        <f t="array" ref="T53">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T53">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U53">
-        <f t="array" ref="U53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X53">
-        <f t="array" ref="X53">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X53">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="array" ref="Y53">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y53">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="array" ref="Z53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC53">
-        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC53">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD53">
-        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD53">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH53">
-        <f t="array" ref="AH53">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH53">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI53">
-        <f t="array" ref="AI53">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI53">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ53">
-        <f t="array" ref="AJ53">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ53">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="9:36">
       <c r="I54">
-        <f t="array" ref="I54">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I54">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="array" ref="J54">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J54">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="array" ref="K54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="array" ref="N54">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N54">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="array" ref="O54">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O54">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="array" ref="P54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S54">
-        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S54">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T54">
-        <f t="array" ref="T54">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T54">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U54">
-        <f t="array" ref="U54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="array" ref="X54">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X54">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="array" ref="Y54">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y54">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z54">
-        <f t="array" ref="Z54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC54">
-        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC54">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD54">
-        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD54">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE54">
-        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH54">
-        <f t="array" ref="AH54">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH54">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI54">
-        <f t="array" ref="AI54">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI54">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ54">
-        <f t="array" ref="AJ54">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ54">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="9:36">
       <c r="I55">
-        <f t="array" ref="I55">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I55">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="array" ref="J55">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J55">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="array" ref="K55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="array" ref="N55">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N55">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="array" ref="O55">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O55">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="array" ref="P55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S55">
-        <f t="array" ref="S55">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S55">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T55">
-        <f t="array" ref="T55">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T55">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U55">
-        <f t="array" ref="U55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X55">
-        <f t="array" ref="X55">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X55">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y55">
-        <f t="array" ref="Y55">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y55">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="array" ref="Z55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC55">
-        <f t="array" ref="AC55">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC55">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD55">
-        <f t="array" ref="AD55">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD55">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH55">
-        <f t="array" ref="AH55">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH55">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI55">
-        <f t="array" ref="AI55">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI55">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ55">
-        <f t="array" ref="AJ55">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ55">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="9:36">
       <c r="I56">
-        <f t="array" ref="I56">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I56">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="array" ref="J56">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J56">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="array" ref="K56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="array" ref="N56">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N56">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="array" ref="O56">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O56">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="array" ref="P56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S56">
-        <f t="array" ref="S56">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S56">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T56">
-        <f t="array" ref="T56">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T56">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U56">
-        <f t="array" ref="U56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X56">
-        <f t="array" ref="X56">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X56">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y56">
-        <f t="array" ref="Y56">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y56">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f t="array" ref="Z56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC56">
-        <f t="array" ref="AC56">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC56">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD56">
-        <f t="array" ref="AD56">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD56">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE56">
-        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH56">
-        <f t="array" ref="AH56">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH56">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI56">
-        <f t="array" ref="AI56">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI56">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ56">
-        <f t="array" ref="AJ56">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ56">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="9:36">
       <c r="I57">
-        <f t="array" ref="I57">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I57">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J57">
-        <f t="array" ref="J57">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J57">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="array" ref="K57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N57">
-        <f t="array" ref="N57">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N57">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="array" ref="O57">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O57">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="array" ref="P57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="array" ref="S57">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S57">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T57">
-        <f t="array" ref="T57">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T57">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U57">
-        <f t="array" ref="U57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X57">
-        <f t="array" ref="X57">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X57">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="array" ref="Y57">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y57">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z57">
-        <f t="array" ref="Z57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC57">
-        <f t="array" ref="AC57">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC57">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD57">
-        <f t="array" ref="AD57">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD57">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE57">
-        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH57">
-        <f t="array" ref="AH57">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH57">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI57">
-        <f t="array" ref="AI57">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI57">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ57">
-        <f t="array" ref="AJ57">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ57">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="9:36">
       <c r="I58">
-        <f t="array" ref="I58">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I58">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J58">
-        <f t="array" ref="J58">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J58">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="array" ref="K58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N58">
-        <f t="array" ref="N58">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N58">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="array" ref="O58">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O58">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="array" ref="P58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S58">
-        <f t="array" ref="S58">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S58">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T58">
-        <f t="array" ref="T58">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T58">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U58">
-        <f t="array" ref="U58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X58">
-        <f t="array" ref="X58">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X58">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="array" ref="Y58">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y58">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z58">
-        <f t="array" ref="Z58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC58">
-        <f t="array" ref="AC58">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC58">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD58">
-        <f t="array" ref="AD58">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD58">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE58">
-        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH58">
-        <f t="array" ref="AH58">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH58">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI58">
-        <f t="array" ref="AI58">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI58">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ58">
-        <f t="array" ref="AJ58">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ58">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="9:36">
       <c r="I59">
-        <f t="array" ref="I59">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I59">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="array" ref="J59">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J59">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="array" ref="K59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N59">
-        <f t="array" ref="N59">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N59">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="array" ref="O59">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O59">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="array" ref="P59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S59">
-        <f t="array" ref="S59">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S59">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T59">
-        <f t="array" ref="T59">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T59">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U59">
-        <f t="array" ref="U59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X59">
-        <f t="array" ref="X59">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X59">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="array" ref="Y59">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y59">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z59">
-        <f t="array" ref="Z59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC59">
-        <f t="array" ref="AC59">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC59">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD59">
-        <f t="array" ref="AD59">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD59">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE59">
-        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH59">
-        <f t="array" ref="AH59">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH59">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI59">
-        <f t="array" ref="AI59">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI59">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ59">
-        <f t="array" ref="AJ59">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ59">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="9:36">
       <c r="I60">
-        <f t="array" ref="I60">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I60">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J60">
-        <f t="array" ref="J60">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J60">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="array" ref="K60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N60">
-        <f t="array" ref="N60">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N60">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="array" ref="O60">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O60">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P60">
-        <f t="array" ref="P60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S60">
-        <f t="array" ref="S60">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S60">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T60">
-        <f t="array" ref="T60">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T60">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U60">
-        <f t="array" ref="U60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X60">
-        <f t="array" ref="X60">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X60">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="array" ref="Y60">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y60">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z60">
-        <f t="array" ref="Z60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC60">
-        <f t="array" ref="AC60">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC60">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD60">
-        <f t="array" ref="AD60">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD60">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE60">
-        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH60">
-        <f t="array" ref="AH60">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH60">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI60">
-        <f t="array" ref="AI60">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI60">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ60">
-        <f t="array" ref="AJ60">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ60">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="9:36">
       <c r="I61">
-        <f t="array" ref="I61">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I61">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="array" ref="J61">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J61">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="array" ref="K61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N61">
-        <f t="array" ref="N61">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N61">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="array" ref="O61">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O61">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="array" ref="P61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S61">
-        <f t="array" ref="S61">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S61">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T61">
-        <f t="array" ref="T61">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T61">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U61">
-        <f t="array" ref="U61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X61">
-        <f t="array" ref="X61">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X61">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y61">
-        <f t="array" ref="Y61">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y61">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z61">
-        <f t="array" ref="Z61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC61">
-        <f t="array" ref="AC61">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC61">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD61">
-        <f t="array" ref="AD61">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD61">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE61">
-        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH61">
-        <f t="array" ref="AH61">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH61">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI61">
-        <f t="array" ref="AI61">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI61">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ61">
-        <f t="array" ref="AJ61">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ61">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="9:36">
       <c r="I62">
-        <f t="array" ref="I62">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I62">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J62">
-        <f t="array" ref="J62">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J62">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="array" ref="K62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="array" ref="N62">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N62">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="array" ref="O62">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O62">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="array" ref="P62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S62">
-        <f t="array" ref="S62">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S62">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T62">
-        <f t="array" ref="T62">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T62">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U62">
-        <f t="array" ref="U62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X62">
-        <f t="array" ref="X62">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X62">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y62">
-        <f t="array" ref="Y62">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y62">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z62">
-        <f t="array" ref="Z62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC62">
-        <f t="array" ref="AC62">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC62">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD62">
-        <f t="array" ref="AD62">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD62">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE62">
-        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH62">
-        <f t="array" ref="AH62">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH62">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI62">
-        <f t="array" ref="AI62">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI62">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ62">
-        <f t="array" ref="AJ62">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ62">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="9:36">
       <c r="I63">
-        <f t="array" ref="I63">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I63">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="array" ref="J63">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J63">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="array" ref="K63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="array" ref="N63">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N63">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="array" ref="O63">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O63">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="array" ref="P63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S63">
-        <f t="array" ref="S63">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S63">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T63">
-        <f t="array" ref="T63">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T63">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U63">
-        <f t="array" ref="U63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f t="array" ref="X63">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X63">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y63">
-        <f t="array" ref="Y63">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y63">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="array" ref="Z63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC63">
-        <f t="array" ref="AC63">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC63">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD63">
-        <f t="array" ref="AD63">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD63">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH63">
-        <f t="array" ref="AH63">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH63">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI63">
-        <f t="array" ref="AI63">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI63">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ63">
-        <f t="array" ref="AJ63">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ63">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="9:36">
       <c r="I64">
-        <f t="array" ref="I64">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I64">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="array" ref="J64">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J64">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="array" ref="K64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="array" ref="N64">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N64">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="array" ref="O64">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O64">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="array" ref="P64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S64">
-        <f t="array" ref="S64">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S64">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T64">
-        <f t="array" ref="T64">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T64">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U64">
-        <f t="array" ref="U64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X64">
-        <f t="array" ref="X64">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X64">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y64">
-        <f t="array" ref="Y64">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y64">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z64">
-        <f t="array" ref="Z64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC64">
-        <f t="array" ref="AC64">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC64">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD64">
-        <f t="array" ref="AD64">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD64">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE64">
-        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH64">
-        <f t="array" ref="AH64">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH64">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI64">
-        <f t="array" ref="AI64">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI64">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ64">
-        <f t="array" ref="AJ64">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ64">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="9:36">
       <c r="I65">
-        <f t="array" ref="I65">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I65">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="array" ref="J65">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J65">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="array" ref="K65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="array" ref="N65">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N65">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="array" ref="O65">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O65">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="array" ref="P65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S65">
-        <f t="array" ref="S65">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S65">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T65">
-        <f t="array" ref="T65">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T65">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U65">
-        <f t="array" ref="U65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X65">
-        <f t="array" ref="X65">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X65">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y65">
-        <f t="array" ref="Y65">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y65">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z65">
-        <f t="array" ref="Z65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC65">
-        <f t="array" ref="AC65">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC65">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD65">
-        <f t="array" ref="AD65">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD65">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE65">
-        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH65">
-        <f t="array" ref="AH65">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH65">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI65">
-        <f t="array" ref="AI65">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI65">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ65">
-        <f t="array" ref="AJ65">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ65">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="9:36">
       <c r="I66">
-        <f t="array" ref="I66">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I66">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J66">
-        <f t="array" ref="J66">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J66">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="array" ref="K66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="array" ref="N66">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N66">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="array" ref="O66">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O66">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="array" ref="P66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S66">
-        <f t="array" ref="S66">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S66">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T66">
-        <f t="array" ref="T66">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T66">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U66">
-        <f t="array" ref="U66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X66">
-        <f t="array" ref="X66">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X66">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y66">
-        <f t="array" ref="Y66">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y66">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z66">
-        <f t="array" ref="Z66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC66">
-        <f t="array" ref="AC66">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC66">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD66">
-        <f t="array" ref="AD66">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD66">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE66">
-        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH66">
-        <f t="array" ref="AH66">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH66">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI66">
-        <f t="array" ref="AI66">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI66">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ66">
-        <f t="array" ref="AJ66">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ66">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="9:36">
       <c r="I67">
-        <f t="array" ref="I67">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I67">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J67">
-        <f t="array" ref="J67">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J67">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="array" ref="K67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="array" ref="N67">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N67">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="array" ref="O67">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O67">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="array" ref="P67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S67">
-        <f t="array" ref="S67">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S67">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="array" ref="T67">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T67">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U67">
-        <f t="array" ref="U67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X67">
-        <f t="array" ref="X67">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X67">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y67">
-        <f t="array" ref="Y67">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y67">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z67">
-        <f t="array" ref="Z67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC67">
-        <f t="array" ref="AC67">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC67">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD67">
-        <f t="array" ref="AD67">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD67">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE67">
-        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH67">
-        <f t="array" ref="AH67">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH67">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI67">
-        <f t="array" ref="AI67">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI67">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ67">
-        <f t="array" ref="AJ67">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ67">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="9:36">
       <c r="I68">
-        <f t="array" ref="I68">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I68">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J68">
-        <f t="array" ref="J68">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J68">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="array" ref="K68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="array" ref="N68">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N68">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="array" ref="O68">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O68">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="array" ref="P68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="array" ref="S68">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S68">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T68">
-        <f t="array" ref="T68">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T68">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U68">
-        <f t="array" ref="U68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X68">
-        <f t="array" ref="X68">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X68">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y68">
-        <f t="array" ref="Y68">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y68">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z68">
-        <f t="array" ref="Z68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC68">
-        <f t="array" ref="AC68">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC68">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD68">
-        <f t="array" ref="AD68">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD68">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE68">
-        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH68">
-        <f t="array" ref="AH68">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH68">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI68">
-        <f t="array" ref="AI68">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI68">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ68">
-        <f t="array" ref="AJ68">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ68">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="9:36">
       <c r="I69">
-        <f t="array" ref="I69">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I69">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J69">
-        <f t="array" ref="J69">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J69">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="array" ref="K69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="array" ref="N69">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N69">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="array" ref="O69">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O69">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="array" ref="P69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S69">
-        <f t="array" ref="S69">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S69">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T69">
-        <f t="array" ref="T69">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T69">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U69">
-        <f t="array" ref="U69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X69">
-        <f t="array" ref="X69">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X69">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y69">
-        <f t="array" ref="Y69">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y69">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z69">
-        <f t="array" ref="Z69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC69">
-        <f t="array" ref="AC69">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC69">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD69">
-        <f t="array" ref="AD69">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD69">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE69">
-        <f t="array" ref="AE69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH69">
-        <f t="array" ref="AH69">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH69">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI69">
-        <f t="array" ref="AI69">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI69">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ69">
-        <f t="array" ref="AJ69">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ69">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="9:36">
       <c r="I70">
-        <f t="array" ref="I70">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="I70">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="J70">
-        <f t="array" ref="J70">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="J70">IFERROR(CONCATENATE((INDEX($L$7:$L$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="array" ref="K70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="K70">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($L$7:$L$37&lt;&gt;"",IF($I$7:$I$37&lt;&gt;"",ROW($I$7:$I$37)-MIN(ROW($I$7:$I$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="array" ref="N70">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="N70">IFERROR(CONCATENATE((INDEX($Q$7:$Q$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="array" ref="O70">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="O70">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="array" ref="P70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="P70">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($Q$7:$Q$37&lt;&gt;"",IF($N$7:$N$37&lt;&gt;"",ROW($N$7:$N$37)-MIN(ROW($N$7:$N$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="S70">
-        <f t="array" ref="S70">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="S70">IFERROR(CONCATENATE((INDEX($V$7:$V$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="T70">
-        <f t="array" ref="T70">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="T70">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="U70">
-        <f t="array" ref="U70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="U70">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($V$7:$V$37&lt;&gt;"",IF($S$7:$S$37&lt;&gt;"",ROW($S$7:$S$37)-MIN(ROW($S$7:$S$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="X70">
-        <f t="array" ref="X70">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
+        <f t="array" ref="X70">IFERROR(CONCATENATE((INDEX($AA$7:$AA$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="Y70">
-        <f t="array" ref="Y70">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
+        <f t="array" ref="Y70">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="Z70">
-        <f t="array" ref="Z70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="Z70">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AA$7:$AA$37&lt;&gt;"",IF($X$7:$X$37&lt;&gt;"",ROW($X$7:$X$37)-MIN(ROW($X$7:$X$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AC70">
-        <f t="array" ref="AC70">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AC70">IFERROR(CONCATENATE((INDEX($AF$7:$AF$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AD70">
-        <f t="array" ref="AD70">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AD70">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AE70">
-        <f t="array" ref="AE70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AE70">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AF$7:$AF$37&lt;&gt;"",IF($AC$7:$AC$37&lt;&gt;"",ROW($AC$7:$AC$37)-MIN(ROW($AC$7:$AC$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="AH70">
-        <f t="array" ref="AH70">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
+        <f t="array" ref="AH70">IFERROR(CONCATENATE((INDEX($AK$7:$AK$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="AI70">
-        <f t="array" ref="AI70">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
+        <f t="array" ref="AI70">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="AJ70">
-        <f t="array" ref="AJ70">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="9:36">
-      <c r="I71">
-        <f t="array" ref="I71">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f t="array" ref="J71">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <f t="array" ref="K71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <f t="array" ref="N71">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <f t="array" ref="O71">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <f t="array" ref="P71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <f t="array" ref="S71">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <f t="array" ref="T71">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <f t="array" ref="U71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <f t="array" ref="X71">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <f t="array" ref="Y71">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <f t="array" ref="Z71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <f t="array" ref="AC71">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <f t="array" ref="AD71">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <f t="array" ref="AE71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AH71">
-        <f t="array" ref="AH71">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <f t="array" ref="AI71">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ71">
-        <f t="array" ref="AJ71">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="9:36">
-      <c r="I72">
-        <f t="array" ref="I72">IFERROR(CONCATENATE(TEXT(INDEX($I$7:$I$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f t="array" ref="J72">IFERROR(CONCATENATE((INDEX($L$7:$L$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <f t="array" ref="K72">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($L$7:$L$38&lt;&gt;"",IF($I$7:$I$38&lt;&gt;"",ROW($I$7:$I$38)-MIN(ROW($I$7:$I$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f t="array" ref="N72">IFERROR(CONCATENATE((INDEX($Q$7:$Q$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <f t="array" ref="O72">IFERROR(CONCATENATE(TEXT(INDEX($N$7:$N$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <f t="array" ref="P72">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($Q$7:$Q$38&lt;&gt;"",IF($N$7:$N$38&lt;&gt;"",ROW($N$7:$N$38)-MIN(ROW($N$7:$N$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <f t="array" ref="S72">IFERROR(CONCATENATE((INDEX($V$7:$V$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <f t="array" ref="T72">IFERROR(CONCATENATE(TEXT(INDEX($S$7:$S$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U72">
-        <f t="array" ref="U72">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($V$7:$V$38&lt;&gt;"",IF($S$7:$S$38&lt;&gt;"",ROW($S$7:$S$38)-MIN(ROW($S$7:$S$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <f t="array" ref="X72">IFERROR(CONCATENATE((INDEX($AA$7:$AA$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <f t="array" ref="Y72">IFERROR(CONCATENATE(TEXT(INDEX($X$7:$X$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <f t="array" ref="Z72">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AA$7:$AA$38&lt;&gt;"",IF($X$7:$X$38&lt;&gt;"",ROW($X$7:$X$38)-MIN(ROW($X$7:$X$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <f t="array" ref="AC72">IFERROR(CONCATENATE((INDEX($AF$7:$AF$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <f t="array" ref="AD72">IFERROR(CONCATENATE(TEXT(INDEX($AC$7:$AC$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <f t="array" ref="AE72">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AF$7:$AF$38&lt;&gt;"",IF($AC$7:$AC$38&lt;&gt;"",ROW($AC$7:$AC$38)-MIN(ROW($AC$7:$AC$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AH72">
-        <f t="array" ref="AH72">IFERROR(CONCATENATE((INDEX($AK$7:$AK$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI72">
-        <f t="array" ref="AI72">IFERROR(CONCATENATE(TEXT(INDEX($AH$7:$AH$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AJ72">
-        <f t="array" ref="AJ72">IFERROR(CONCATENATE((INDEX($A$7:$A$38,SMALL(IF($AK$7:$AK$38&lt;&gt;"",IF($AH$7:$AH$38&lt;&gt;"",ROW($AH$7:$AH$38)-MIN(ROW($AH$7:$AH$38))+1,""),""),ROW()-ROW(A$41)+1))),),"")</f>
+        <f t="array" ref="AJ70">IFERROR(CONCATENATE((INDEX($A$7:$A$37,SMALL(IF($AK$7:$AK$37&lt;&gt;"",IF($AH$7:$AH$37&lt;&gt;"",ROW($AH$7:$AH$37)-MIN(ROW($AH$7:$AH$37))+1,""),""),ROW()-ROW(A$40)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -5797,72 +5768,72 @@
     <mergeCell ref="AG5:AK5"/>
   </mergeCells>
   <conditionalFormatting sqref="AB20">
-    <cfRule type="cellIs" dxfId="1" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="205" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="200" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="206" operator="lessThan">
       <formula>E20</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB21">
+    <cfRule type="cellIs" dxfId="1" priority="210" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="211" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AB22">
-    <cfRule type="cellIs" dxfId="1" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="215" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="205" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="216" operator="lessThan">
       <formula>E22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB23">
-    <cfRule type="cellIs" dxfId="1" priority="209" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="210" operator="lessThan">
-      <formula>E23</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AC20">
-    <cfRule type="cellIs" dxfId="1" priority="201" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="207" operator="greaterThan">
       <formula>AB20</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AC21">
+    <cfRule type="cellIs" dxfId="1" priority="212" operator="greaterThan">
+      <formula>AB21</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AC22">
-    <cfRule type="cellIs" dxfId="1" priority="206" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="217" operator="greaterThan">
       <formula>AB22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC23">
-    <cfRule type="cellIs" dxfId="1" priority="211" operator="greaterThan">
-      <formula>AB23</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AD20">
-    <cfRule type="cellIs" dxfId="4" priority="203" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="209" operator="lessThanOrEqual">
       <formula>F20</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AD21">
+    <cfRule type="cellIs" dxfId="4" priority="214" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AD22">
+    <cfRule type="cellIs" dxfId="4" priority="219" operator="lessThanOrEqual">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20">
     <cfRule type="cellIs" dxfId="4" priority="208" operator="lessThanOrEqual">
-      <formula>F22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD23">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
     <cfRule type="cellIs" dxfId="4" priority="213" operator="lessThanOrEqual">
-      <formula>F23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE20">
-    <cfRule type="cellIs" dxfId="4" priority="202" operator="lessThanOrEqual">
-      <formula>G20</formula>
+      <formula>G21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="4" priority="207" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="218" operator="lessThanOrEqual">
       <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="4" priority="212" operator="lessThanOrEqual">
-      <formula>G23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
@@ -6257,20 +6228,6 @@
       <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="expression" dxfId="0" priority="125">
-      <formula>AND(ISBLANK(D38),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="126">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="127" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="128" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(ISBLANK(D7),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+4))),ISBLANK(INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+4))))</formula>
@@ -6314,347 +6271,395 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="1" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="130" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="126" operator="lessThan">
       <formula>E20</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="1" priority="130" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="131" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="1" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="135" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="135" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="136" operator="lessThan">
       <formula>E22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="1" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="140" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="140" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="141" operator="lessThan">
       <formula>E23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
-    <cfRule type="cellIs" dxfId="1" priority="144" operator="equal">
+  <conditionalFormatting sqref="M31">
+    <cfRule type="cellIs" dxfId="1" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="145" operator="lessThan">
-      <formula>E24</formula>
+    <cfRule type="cellIs" dxfId="2" priority="146" operator="lessThan">
+      <formula>E31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36">
+    <cfRule type="cellIs" dxfId="1" priority="150" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="151" operator="lessThan">
+      <formula>E36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="cellIs" dxfId="1" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="156" operator="lessThan">
       <formula>E37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" dxfId="1" priority="154" operator="equal">
+  <conditionalFormatting sqref="N20">
+    <cfRule type="cellIs" dxfId="1" priority="127" operator="greaterThan">
+      <formula>M20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="cellIs" dxfId="1" priority="132" operator="greaterThan">
+      <formula>M21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="cellIs" dxfId="1" priority="137" operator="greaterThan">
+      <formula>M22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="cellIs" dxfId="1" priority="142" operator="greaterThan">
+      <formula>M23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="cellIs" dxfId="1" priority="147" operator="greaterThan">
+      <formula>M31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36">
+    <cfRule type="cellIs" dxfId="1" priority="152" operator="greaterThan">
+      <formula>M36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37">
+    <cfRule type="cellIs" dxfId="1" priority="157" operator="greaterThan">
+      <formula>M37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="cellIs" dxfId="4" priority="129" operator="lessThanOrEqual">
+      <formula>F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21">
+    <cfRule type="cellIs" dxfId="4" priority="134" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22">
+    <cfRule type="cellIs" dxfId="4" priority="139" operator="lessThanOrEqual">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23">
+    <cfRule type="cellIs" dxfId="4" priority="144" operator="lessThanOrEqual">
+      <formula>F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31">
+    <cfRule type="cellIs" dxfId="4" priority="149" operator="lessThanOrEqual">
+      <formula>F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O36">
+    <cfRule type="cellIs" dxfId="4" priority="154" operator="lessThanOrEqual">
+      <formula>F36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37">
+    <cfRule type="cellIs" dxfId="4" priority="159" operator="lessThanOrEqual">
+      <formula>F37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20">
+    <cfRule type="cellIs" dxfId="4" priority="128" operator="lessThanOrEqual">
+      <formula>G20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P21">
+    <cfRule type="cellIs" dxfId="4" priority="133" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P22">
+    <cfRule type="cellIs" dxfId="4" priority="138" operator="lessThanOrEqual">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="cellIs" dxfId="4" priority="143" operator="lessThanOrEqual">
+      <formula>G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="cellIs" dxfId="4" priority="148" operator="lessThanOrEqual">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36">
+    <cfRule type="cellIs" dxfId="4" priority="153" operator="lessThanOrEqual">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37">
+    <cfRule type="cellIs" dxfId="4" priority="158" operator="lessThanOrEqual">
+      <formula>G37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="cellIs" dxfId="1" priority="160" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="155" operator="lessThan">
-      <formula>E38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="1" priority="131" operator="greaterThan">
-      <formula>M20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="1" priority="136" operator="greaterThan">
-      <formula>M22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="1" priority="141" operator="greaterThan">
-      <formula>M23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
-    <cfRule type="cellIs" dxfId="1" priority="146" operator="greaterThan">
-      <formula>M24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N37">
-    <cfRule type="cellIs" dxfId="1" priority="151" operator="greaterThan">
-      <formula>M37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="1" priority="156" operator="greaterThan">
-      <formula>M38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20">
-    <cfRule type="cellIs" dxfId="4" priority="133" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="161" operator="lessThan">
+      <formula>E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R31">
+    <cfRule type="cellIs" dxfId="1" priority="165" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="166" operator="lessThan">
+      <formula>E31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="cellIs" dxfId="1" priority="162" operator="greaterThan">
+      <formula>R22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S31">
+    <cfRule type="cellIs" dxfId="1" priority="167" operator="greaterThan">
+      <formula>R31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
+    <cfRule type="cellIs" dxfId="4" priority="164" operator="lessThanOrEqual">
+      <formula>F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T31">
+    <cfRule type="cellIs" dxfId="4" priority="169" operator="lessThanOrEqual">
+      <formula>F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="cellIs" dxfId="4" priority="163" operator="lessThanOrEqual">
+      <formula>G22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31">
+    <cfRule type="cellIs" dxfId="4" priority="168" operator="lessThanOrEqual">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="cellIs" dxfId="1" priority="170" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="171" operator="lessThan">
+      <formula>E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="cellIs" dxfId="1" priority="175" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="176" operator="lessThan">
+      <formula>E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22">
+    <cfRule type="cellIs" dxfId="1" priority="180" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="181" operator="lessThan">
+      <formula>E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="cellIs" dxfId="1" priority="185" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="186" operator="lessThan">
+      <formula>E23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31">
+    <cfRule type="cellIs" dxfId="1" priority="190" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="191" operator="lessThan">
+      <formula>E31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W36">
+    <cfRule type="cellIs" dxfId="1" priority="195" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="196" operator="lessThan">
+      <formula>E36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W37">
+    <cfRule type="cellIs" dxfId="1" priority="200" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="201" operator="lessThan">
+      <formula>E37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20">
+    <cfRule type="cellIs" dxfId="1" priority="172" operator="greaterThan">
+      <formula>W20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21">
+    <cfRule type="cellIs" dxfId="1" priority="177" operator="greaterThan">
+      <formula>W21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22">
+    <cfRule type="cellIs" dxfId="1" priority="182" operator="greaterThan">
+      <formula>W22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23">
+    <cfRule type="cellIs" dxfId="1" priority="187" operator="greaterThan">
+      <formula>W23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="cellIs" dxfId="1" priority="192" operator="greaterThan">
+      <formula>W31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36">
+    <cfRule type="cellIs" dxfId="1" priority="197" operator="greaterThan">
+      <formula>W36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X37">
+    <cfRule type="cellIs" dxfId="1" priority="202" operator="greaterThan">
+      <formula>W37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
+    <cfRule type="cellIs" dxfId="4" priority="174" operator="lessThanOrEqual">
       <formula>F20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22">
-    <cfRule type="cellIs" dxfId="4" priority="138" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y21">
+    <cfRule type="cellIs" dxfId="4" priority="179" operator="lessThanOrEqual">
+      <formula>F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y22">
+    <cfRule type="cellIs" dxfId="4" priority="184" operator="lessThanOrEqual">
       <formula>F22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" dxfId="4" priority="143" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="4" priority="189" operator="lessThanOrEqual">
       <formula>F23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O24">
-    <cfRule type="cellIs" dxfId="4" priority="148" operator="lessThanOrEqual">
-      <formula>F24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O37">
-    <cfRule type="cellIs" dxfId="4" priority="153" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Y31">
+    <cfRule type="cellIs" dxfId="4" priority="194" operator="lessThanOrEqual">
+      <formula>F31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y36">
+    <cfRule type="cellIs" dxfId="4" priority="199" operator="lessThanOrEqual">
+      <formula>F36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y37">
+    <cfRule type="cellIs" dxfId="4" priority="204" operator="lessThanOrEqual">
       <formula>F37</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O38">
-    <cfRule type="cellIs" dxfId="4" priority="158" operator="lessThanOrEqual">
-      <formula>F38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" dxfId="4" priority="132" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Z20">
+    <cfRule type="cellIs" dxfId="4" priority="173" operator="lessThanOrEqual">
       <formula>G20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" dxfId="4" priority="137" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Z21">
+    <cfRule type="cellIs" dxfId="4" priority="178" operator="lessThanOrEqual">
+      <formula>G21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22">
+    <cfRule type="cellIs" dxfId="4" priority="183" operator="lessThanOrEqual">
       <formula>G22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="cellIs" dxfId="4" priority="142" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Z23">
+    <cfRule type="cellIs" dxfId="4" priority="188" operator="lessThanOrEqual">
       <formula>G23</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24">
-    <cfRule type="cellIs" dxfId="4" priority="147" operator="lessThanOrEqual">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P37">
-    <cfRule type="cellIs" dxfId="4" priority="152" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="Z31">
+    <cfRule type="cellIs" dxfId="4" priority="193" operator="lessThanOrEqual">
+      <formula>G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z36">
+    <cfRule type="cellIs" dxfId="4" priority="198" operator="lessThanOrEqual">
+      <formula>G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z37">
+    <cfRule type="cellIs" dxfId="4" priority="203" operator="lessThanOrEqual">
       <formula>G37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P38">
-    <cfRule type="cellIs" dxfId="4" priority="157" operator="lessThanOrEqual">
-      <formula>G38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="1" priority="159" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="160" operator="lessThan">
-      <formula>E23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="1" priority="164" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="165" operator="lessThan">
-      <formula>E32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="cellIs" dxfId="1" priority="161" operator="greaterThan">
-      <formula>R23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S32">
-    <cfRule type="cellIs" dxfId="1" priority="166" operator="greaterThan">
-      <formula>R32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T23">
-    <cfRule type="cellIs" dxfId="4" priority="163" operator="lessThanOrEqual">
-      <formula>F23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T32">
-    <cfRule type="cellIs" dxfId="4" priority="168" operator="lessThanOrEqual">
-      <formula>F32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="4" priority="162" operator="lessThanOrEqual">
-      <formula>G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="4" priority="167" operator="lessThanOrEqual">
-      <formula>G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" dxfId="1" priority="169" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="170" operator="lessThan">
-      <formula>E20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W22">
-    <cfRule type="cellIs" dxfId="1" priority="174" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="175" operator="lessThan">
-      <formula>E22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="1" priority="179" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="180" operator="lessThan">
-      <formula>E23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="1" priority="184" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="185" operator="lessThan">
-      <formula>E24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" dxfId="1" priority="189" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="190" operator="lessThan">
-      <formula>E37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="1" priority="194" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="195" operator="lessThan">
-      <formula>E38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20">
-    <cfRule type="cellIs" dxfId="1" priority="171" operator="greaterThan">
-      <formula>W20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
-    <cfRule type="cellIs" dxfId="1" priority="176" operator="greaterThan">
-      <formula>W22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="1" priority="181" operator="greaterThan">
-      <formula>W23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="1" priority="186" operator="greaterThan">
-      <formula>W24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X37">
-    <cfRule type="cellIs" dxfId="1" priority="191" operator="greaterThan">
-      <formula>W37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X38">
-    <cfRule type="cellIs" dxfId="1" priority="196" operator="greaterThan">
-      <formula>W38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="4" priority="173" operator="lessThanOrEqual">
-      <formula>F20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
-    <cfRule type="cellIs" dxfId="4" priority="178" operator="lessThanOrEqual">
-      <formula>F22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="4" priority="183" operator="lessThanOrEqual">
-      <formula>F23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="4" priority="188" operator="lessThanOrEqual">
-      <formula>F24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y37">
-    <cfRule type="cellIs" dxfId="4" priority="193" operator="lessThanOrEqual">
-      <formula>F37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y38">
-    <cfRule type="cellIs" dxfId="4" priority="198" operator="lessThanOrEqual">
-      <formula>F38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z20">
-    <cfRule type="cellIs" dxfId="4" priority="172" operator="lessThanOrEqual">
-      <formula>G20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z22">
-    <cfRule type="cellIs" dxfId="4" priority="177" operator="lessThanOrEqual">
-      <formula>G22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23">
-    <cfRule type="cellIs" dxfId="4" priority="182" operator="lessThanOrEqual">
-      <formula>G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z24">
-    <cfRule type="cellIs" dxfId="4" priority="187" operator="lessThanOrEqual">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z37">
-    <cfRule type="cellIs" dxfId="4" priority="192" operator="lessThanOrEqual">
-      <formula>G37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z38">
-    <cfRule type="cellIs" dxfId="4" priority="197" operator="lessThanOrEqual">
-      <formula>G38</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="Q20" r:id="rId1"/>
     <hyperlink ref="AA20" r:id="rId2"/>
     <hyperlink ref="AF20" r:id="rId3"/>
-    <hyperlink ref="Q22" r:id="rId4"/>
-    <hyperlink ref="AA22" r:id="rId5"/>
-    <hyperlink ref="AF22" r:id="rId6"/>
-    <hyperlink ref="Q23" r:id="rId7"/>
-    <hyperlink ref="V23" r:id="rId8"/>
-    <hyperlink ref="AA23" r:id="rId9"/>
-    <hyperlink ref="AF23" r:id="rId10"/>
-    <hyperlink ref="Q24" r:id="rId11"/>
-    <hyperlink ref="AA24" r:id="rId12"/>
-    <hyperlink ref="V32" r:id="rId13"/>
-    <hyperlink ref="Q37" r:id="rId14"/>
-    <hyperlink ref="AA37" r:id="rId15"/>
-    <hyperlink ref="Q38" r:id="rId16"/>
-    <hyperlink ref="AA38" r:id="rId17"/>
+    <hyperlink ref="Q21" r:id="rId4"/>
+    <hyperlink ref="AA21" r:id="rId5"/>
+    <hyperlink ref="AF21" r:id="rId6"/>
+    <hyperlink ref="Q22" r:id="rId7"/>
+    <hyperlink ref="V22" r:id="rId8"/>
+    <hyperlink ref="AA22" r:id="rId9"/>
+    <hyperlink ref="AF22" r:id="rId10"/>
+    <hyperlink ref="Q23" r:id="rId11"/>
+    <hyperlink ref="AA23" r:id="rId12"/>
+    <hyperlink ref="Q31" r:id="rId13"/>
+    <hyperlink ref="V31" r:id="rId14"/>
+    <hyperlink ref="AA31" r:id="rId15"/>
+    <hyperlink ref="Q36" r:id="rId16"/>
+    <hyperlink ref="AA36" r:id="rId17"/>
+    <hyperlink ref="Q37" r:id="rId18"/>
+    <hyperlink ref="AA37" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId18"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>